--- a/DesignerConfigs/Datas/__enums__.xlsx
+++ b/DesignerConfigs/Datas/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGit\UnityGameFramework_Huatuo\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60CCA05-1E34-48F2-9BBB-F9DE3A7E207D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DDF0E7-D018-42A6-A6C9-7A8620407019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2430" yWindow="735" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,30 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alias</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,42 +55,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>full_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test.ETestQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全名(包含模块和名字)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,39 +99,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test.AccessFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUNCATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ_WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITE|READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否为标志类（即每个枚举项为位标记，例如System.IO.FileMode,填数据时可以为READ|WRITE这样)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC|Monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非玩家角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,16 +507,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
@@ -570,25 +526,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -597,48 +553,48 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -646,113 +602,44 @@
         <v>20</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
